--- a/Szoftvertesztelés/Program1/Tesztesetek.xlsx
+++ b/Szoftvertesztelés/Program1/Tesztesetek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\12\12.cb Szoftvertesztelés\Program1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\t_Szabo Daniel\12.cb Szoftvertesztelés 2 csoport\Program1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0495F9F-784F-4125-B5BA-4889243A0B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A696EC5D-7468-4E75-9B5F-1E098BD33EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76C08E6-68FF-49AA-88B9-EE0AC9DA6B96}"/>
   </bookViews>
   <sheets>
     <sheet name="program1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Várható eredmény</t>
   </si>
@@ -51,56 +51,44 @@
     <t>Esemény megfogalmazása</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>Sorsz</t>
   </si>
   <si>
     <t>Hiba megfogalmazása</t>
   </si>
   <si>
-    <t>A játékosok nevét nem lehet megadni</t>
-  </si>
-  <si>
-    <t>2-játékos gomb lenyomása</t>
-  </si>
-  <si>
-    <t>Megadható a játkos neve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Óra hozzáadaása gomb lenyomása </t>
-  </si>
-  <si>
-    <t>A játékidő beállítása</t>
-  </si>
-  <si>
-    <t>Lenyomás esetén egyből elindul egy visszaszámláló</t>
-  </si>
-  <si>
-    <t>Óra letelése</t>
-  </si>
-  <si>
-    <t>Ha letelik az idő és nincs bábú leütve = döntetlen</t>
-  </si>
-  <si>
-    <t>Ha letelik az idő mindig valamelyik fél nyer</t>
-  </si>
-  <si>
-    <t>Következő játékos</t>
-  </si>
-  <si>
-    <t>A soron lévő játékos jelzése</t>
-  </si>
-  <si>
-    <t>Nincs jelzés, nem egyértelmű hogy ki jön</t>
+    <t>2-Játékos gomb lenyomása</t>
+  </si>
+  <si>
+    <t>A játékosok megadása pl. név megadása</t>
+  </si>
+  <si>
+    <t>HIBA</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>A játékosok nevét, szerepét nem lehet megadni</t>
+  </si>
+  <si>
+    <t>Óra hozzáadása gomb lenyomása</t>
+  </si>
+  <si>
+    <t>A játékidő beállítása vagy körök beállítása</t>
+  </si>
+  <si>
+    <t>20 HIBA 10 OK</t>
+  </si>
+  <si>
+    <t>Leadási határidő 2024.10.24. Csüt 23:59:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,20 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0231CE-89BE-4B9A-B007-29C9D24325B8}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -493,48 +481,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -547,25 +532,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
